--- a/apps/matrix-importer/class3.xlsx
+++ b/apps/matrix-importer/class3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan.zoleta/Projects/toll-ph/apps/matrix-importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB906DF-170F-9048-9317-EA865C222C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8016706D-36C2-EA44-987C-C6AD564EAE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLEX" sheetId="1" r:id="rId1"/>
@@ -1300,9 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B9BC0-D3F5-9546-A306-F01AB88FB40B}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:AC68"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1982,55 +1980,55 @@
         <v>42</v>
       </c>
       <c r="B20" s="2">
-        <v>2369</v>
+        <v>2490</v>
       </c>
       <c r="C20" s="2">
-        <v>2369</v>
+        <v>2490</v>
       </c>
       <c r="D20" s="2">
-        <v>2369</v>
+        <v>2490</v>
       </c>
       <c r="E20" s="2">
-        <v>2369</v>
+        <v>2490</v>
       </c>
       <c r="F20" s="2">
-        <v>2369</v>
+        <v>2490</v>
       </c>
       <c r="G20" s="2">
-        <v>2369</v>
+        <v>2490</v>
       </c>
       <c r="H20" s="2">
-        <v>2098</v>
+        <v>2219</v>
       </c>
       <c r="I20" s="2">
-        <v>2072</v>
+        <v>2193</v>
       </c>
       <c r="J20" s="2">
-        <v>2058</v>
+        <v>2179</v>
       </c>
       <c r="K20" s="2">
-        <v>1984</v>
+        <v>2105</v>
       </c>
       <c r="L20" s="2">
-        <v>1904</v>
+        <v>2025</v>
       </c>
       <c r="M20" s="2">
-        <v>1798</v>
+        <v>1919</v>
       </c>
       <c r="N20" s="2">
-        <v>1616</v>
+        <v>1737</v>
       </c>
       <c r="O20" s="2">
-        <v>1478</v>
+        <v>1599</v>
       </c>
       <c r="P20" s="2">
-        <v>1368</v>
+        <v>1489</v>
       </c>
       <c r="Q20" s="2">
-        <v>1236</v>
+        <v>1357</v>
       </c>
       <c r="R20" s="2">
-        <v>1204</v>
+        <v>1325</v>
       </c>
       <c r="S20">
         <v>133</v>
@@ -2041,58 +2039,58 @@
         <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>2026</v>
+        <v>2121</v>
       </c>
       <c r="C21" s="2">
-        <v>2026</v>
+        <v>2121</v>
       </c>
       <c r="D21" s="2">
-        <v>2026</v>
+        <v>2121</v>
       </c>
       <c r="E21" s="2">
-        <v>2026</v>
+        <v>2121</v>
       </c>
       <c r="F21" s="2">
-        <v>2026</v>
+        <v>2121</v>
       </c>
       <c r="G21" s="2">
-        <v>2026</v>
+        <v>2121</v>
       </c>
       <c r="H21" s="2">
-        <v>1755</v>
+        <v>1850</v>
       </c>
       <c r="I21" s="2">
-        <v>1729</v>
+        <v>1824</v>
       </c>
       <c r="J21" s="2">
-        <v>1715</v>
+        <v>1810</v>
       </c>
       <c r="K21" s="2">
-        <v>1641</v>
+        <v>1736</v>
       </c>
       <c r="L21" s="2">
-        <v>1561</v>
+        <v>1656</v>
       </c>
       <c r="M21" s="2">
-        <v>1455</v>
+        <v>1550</v>
       </c>
       <c r="N21" s="2">
-        <v>1273</v>
+        <v>1368</v>
       </c>
       <c r="O21" s="2">
-        <v>1135</v>
+        <v>1230</v>
       </c>
       <c r="P21" s="2">
-        <v>1025</v>
+        <v>1120</v>
       </c>
       <c r="Q21">
-        <v>893</v>
+        <v>988</v>
       </c>
       <c r="R21">
-        <v>861</v>
+        <v>956</v>
       </c>
       <c r="S21">
-        <v>344</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -2100,61 +2098,61 @@
         <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>1697</v>
+        <v>1752</v>
       </c>
       <c r="C22" s="2">
-        <v>1697</v>
+        <v>1752</v>
       </c>
       <c r="D22" s="2">
-        <v>1697</v>
+        <v>1752</v>
       </c>
       <c r="E22" s="2">
-        <v>1697</v>
+        <v>1752</v>
       </c>
       <c r="F22" s="2">
-        <v>1697</v>
+        <v>1752</v>
       </c>
       <c r="G22" s="2">
-        <v>1697</v>
+        <v>1752</v>
       </c>
       <c r="H22" s="2">
-        <v>1426</v>
+        <v>1481</v>
       </c>
       <c r="I22" s="2">
-        <v>1400</v>
+        <v>1455</v>
       </c>
       <c r="J22" s="2">
-        <v>1386</v>
+        <v>1441</v>
       </c>
       <c r="K22" s="2">
-        <v>1312</v>
+        <v>1367</v>
       </c>
       <c r="L22" s="2">
-        <v>1232</v>
+        <v>1287</v>
       </c>
       <c r="M22" s="2">
-        <v>1126</v>
+        <v>1181</v>
       </c>
       <c r="N22">
-        <v>944</v>
+        <v>999</v>
       </c>
       <c r="O22">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="P22">
-        <v>696</v>
+        <v>751</v>
       </c>
       <c r="Q22">
-        <v>564</v>
+        <v>619</v>
       </c>
       <c r="R22">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="S22">
-        <v>672</v>
+        <v>738</v>
       </c>
       <c r="T22">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -2162,64 +2160,64 @@
         <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>1457</v>
+        <v>1483</v>
       </c>
       <c r="C23" s="2">
-        <v>1457</v>
+        <v>1483</v>
       </c>
       <c r="D23" s="2">
-        <v>1457</v>
+        <v>1483</v>
       </c>
       <c r="E23" s="2">
-        <v>1457</v>
+        <v>1483</v>
       </c>
       <c r="F23" s="2">
-        <v>1457</v>
+        <v>1483</v>
       </c>
       <c r="G23" s="2">
-        <v>1457</v>
+        <v>1483</v>
       </c>
       <c r="H23" s="2">
+        <v>1212</v>
+      </c>
+      <c r="I23" s="2">
         <v>1186</v>
       </c>
-      <c r="I23" s="2">
-        <v>1160</v>
-      </c>
       <c r="J23" s="2">
-        <v>1146</v>
+        <v>1172</v>
       </c>
       <c r="K23" s="2">
-        <v>1072</v>
-      </c>
-      <c r="L23">
-        <v>992</v>
+        <v>1098</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1018</v>
       </c>
       <c r="M23">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="N23">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="O23">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="P23">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="Q23">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="R23">
-        <v>292</v>
-      </c>
-      <c r="S23">
-        <v>912</v>
+        <v>318</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1008</v>
       </c>
       <c r="T23">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="U23">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -2227,67 +2225,67 @@
         <v>33</v>
       </c>
       <c r="B24" s="2">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="C24" s="2">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="D24" s="2">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="E24" s="2">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="F24" s="2">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="G24" s="2">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="H24" s="2">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="I24">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="J24">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="K24">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="L24">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="M24">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="N24">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O24">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P24">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q24">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="R24">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S24" s="2">
-        <v>1093</v>
+        <v>1210</v>
       </c>
       <c r="T24">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="U24">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="V24">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -2346,19 +2344,19 @@
         <v>82</v>
       </c>
       <c r="S25" s="2">
-        <v>1122</v>
+        <v>1243</v>
       </c>
       <c r="T25">
-        <v>779</v>
+        <v>874</v>
       </c>
       <c r="U25">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="V25">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="W25">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -2366,73 +2364,73 @@
         <v>35</v>
       </c>
       <c r="B26" s="2">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="C26" s="2">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="D26" s="2">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="E26" s="2">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="F26" s="2">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="G26" s="2">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="H26" s="2">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="I26" s="2">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="J26" s="2">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="K26">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="L26">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="M26">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="N26">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="O26">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="P26">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q26">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="R26">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="S26" s="2">
-        <v>1195</v>
+        <v>1325</v>
       </c>
       <c r="T26">
-        <v>851</v>
+        <v>955</v>
       </c>
       <c r="U26">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="V26">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="W26">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="X26">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -2440,76 +2438,76 @@
         <v>36</v>
       </c>
       <c r="B27" s="2">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="C27" s="2">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="D27" s="2">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="E27" s="2">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="F27" s="2">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G27" s="2">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="H27" s="2">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="I27" s="2">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="J27" s="2">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="K27">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="L27">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="M27">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="N27">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="O27">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="P27">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q27">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="R27">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="S27" s="2">
-        <v>1222</v>
+        <v>1355</v>
       </c>
       <c r="T27">
-        <v>878</v>
+        <v>985</v>
       </c>
       <c r="U27">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="V27">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="W27">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="X27">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Y27">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -2517,79 +2515,79 @@
         <v>37</v>
       </c>
       <c r="B28" s="2">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="C28" s="2">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="D28" s="2">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="E28" s="2">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="F28" s="2">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="G28" s="2">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="H28" s="2">
+        <v>1218</v>
+      </c>
+      <c r="I28" s="2">
         <v>1192</v>
       </c>
-      <c r="I28" s="2">
-        <v>1166</v>
-      </c>
       <c r="J28" s="2">
-        <v>1152</v>
+        <v>1178</v>
       </c>
       <c r="K28" s="2">
-        <v>1078</v>
-      </c>
-      <c r="L28">
-        <v>998</v>
+        <v>1104</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1024</v>
       </c>
       <c r="M28">
-        <v>892</v>
+        <v>918</v>
       </c>
       <c r="N28">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="O28">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="P28">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="Q28">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="R28">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="S28" s="2">
-        <v>1338</v>
-      </c>
-      <c r="T28">
-        <v>995</v>
+        <v>1486</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1116</v>
       </c>
       <c r="U28">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="V28">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="W28">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="X28">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="Y28">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="Z28">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -2597,82 +2595,82 @@
         <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="C29" s="2">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="D29" s="2">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="E29" s="2">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="F29" s="2">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="G29" s="2">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="H29" s="2">
-        <v>1258</v>
+        <v>1292</v>
       </c>
       <c r="I29" s="2">
-        <v>1232</v>
+        <v>1266</v>
       </c>
       <c r="J29" s="2">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="K29" s="2">
-        <v>1144</v>
+        <v>1178</v>
       </c>
       <c r="L29" s="2">
-        <v>1064</v>
+        <v>1098</v>
       </c>
       <c r="M29">
-        <v>958</v>
+        <v>992</v>
       </c>
       <c r="N29">
-        <v>776</v>
+        <v>810</v>
       </c>
       <c r="O29">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="P29">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="Q29">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="R29">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="S29" s="2">
-        <v>1404</v>
+        <v>1560</v>
       </c>
       <c r="T29" s="2">
-        <v>1060</v>
+        <v>1190</v>
       </c>
       <c r="U29">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="V29">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="W29">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="X29">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="Y29">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="Z29">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="AA29">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -2680,85 +2678,85 @@
         <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="C30" s="2">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="D30" s="2">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="E30" s="2">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="F30" s="2">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="G30" s="2">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="H30" s="2">
-        <v>1504</v>
+        <v>1569</v>
       </c>
       <c r="I30" s="2">
-        <v>1478</v>
+        <v>1543</v>
       </c>
       <c r="J30" s="2">
-        <v>1464</v>
+        <v>1529</v>
       </c>
       <c r="K30" s="2">
-        <v>1390</v>
+        <v>1455</v>
       </c>
       <c r="L30" s="2">
-        <v>1310</v>
+        <v>1375</v>
       </c>
       <c r="M30" s="2">
-        <v>1204</v>
+        <v>1269</v>
       </c>
       <c r="N30" s="2">
-        <v>1022</v>
+        <v>1087</v>
       </c>
       <c r="O30">
-        <v>884</v>
+        <v>949</v>
       </c>
       <c r="P30">
-        <v>774</v>
+        <v>839</v>
       </c>
       <c r="Q30">
-        <v>642</v>
+        <v>707</v>
       </c>
       <c r="R30">
-        <v>610</v>
+        <v>675</v>
       </c>
       <c r="S30" s="2">
-        <v>1650</v>
+        <v>1836</v>
       </c>
       <c r="T30" s="2">
-        <v>1307</v>
-      </c>
-      <c r="U30">
-        <v>978</v>
+        <v>1467</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1098</v>
       </c>
       <c r="V30">
-        <v>738</v>
+        <v>829</v>
       </c>
       <c r="W30">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="X30">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="Y30">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="Z30">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="AA30">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="AB30">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -2766,88 +2764,88 @@
         <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>1861</v>
+        <v>1936</v>
       </c>
       <c r="C31" s="2">
-        <v>1861</v>
+        <v>1936</v>
       </c>
       <c r="D31" s="2">
-        <v>1861</v>
+        <v>1936</v>
       </c>
       <c r="E31" s="2">
-        <v>1861</v>
+        <v>1936</v>
       </c>
       <c r="F31" s="2">
-        <v>1861</v>
+        <v>1936</v>
       </c>
       <c r="G31" s="2">
-        <v>1861</v>
+        <v>1936</v>
       </c>
       <c r="H31" s="2">
-        <v>1590</v>
+        <v>1665</v>
       </c>
       <c r="I31" s="2">
-        <v>1564</v>
+        <v>1639</v>
       </c>
       <c r="J31" s="2">
-        <v>1550</v>
+        <v>1625</v>
       </c>
       <c r="K31" s="2">
-        <v>1476</v>
+        <v>1551</v>
       </c>
       <c r="L31" s="2">
-        <v>1396</v>
+        <v>1471</v>
       </c>
       <c r="M31" s="2">
-        <v>1290</v>
+        <v>1365</v>
       </c>
       <c r="N31" s="2">
-        <v>1108</v>
-      </c>
-      <c r="O31">
-        <v>970</v>
+        <v>1183</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1045</v>
       </c>
       <c r="P31">
-        <v>860</v>
+        <v>935</v>
       </c>
       <c r="Q31">
-        <v>728</v>
+        <v>803</v>
       </c>
       <c r="R31">
-        <v>696</v>
+        <v>771</v>
       </c>
       <c r="S31" s="2">
-        <v>1736</v>
+        <v>1933</v>
       </c>
       <c r="T31" s="2">
-        <v>1393</v>
+        <v>1563</v>
       </c>
       <c r="U31" s="2">
-        <v>1064</v>
+        <v>1195</v>
       </c>
       <c r="V31">
-        <v>824</v>
+        <v>925</v>
       </c>
       <c r="W31">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="X31">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="Y31">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="Z31">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="AA31">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="AB31">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="AC31">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
@@ -3241,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2434ACF-B3FC-E74E-8884-182839C01BCF}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/apps/matrix-importer/class3.xlsx
+++ b/apps/matrix-importer/class3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan.zoleta/Projects/toll-ph/apps/matrix-importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F5E164-3909-0541-A8FF-8CF630B56BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98A619-53CB-3047-8504-5BB4E2EDCB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLEX" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>La Paz</t>
   </si>
@@ -168,13 +168,109 @@
   </si>
   <si>
     <t> 401.00</t>
+  </si>
+  <si>
+    <t>Balintawak</t>
+  </si>
+  <si>
+    <t>Mindanao Ave.</t>
+  </si>
+  <si>
+    <t>Karuhatan</t>
+  </si>
+  <si>
+    <t>Valenzuela</t>
+  </si>
+  <si>
+    <t>Meycauayan</t>
+  </si>
+  <si>
+    <t>Marilao</t>
+  </si>
+  <si>
+    <t>Ciudad de Victoria</t>
+  </si>
+  <si>
+    <t>Bocaue</t>
+  </si>
+  <si>
+    <t>Tambubong</t>
+  </si>
+  <si>
+    <t>Balagtas</t>
+  </si>
+  <si>
+    <t>Sta. Rita</t>
+  </si>
+  <si>
+    <t>Pulilan</t>
+  </si>
+  <si>
+    <t>San Simon</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Angeles</t>
+  </si>
+  <si>
+    <t>Dau</t>
+  </si>
+  <si>
+    <t>Tipo/Subic</t>
+  </si>
+  <si>
+    <t>Dinalupihan</t>
+  </si>
+  <si>
+    <t>Floridablanca</t>
+  </si>
+  <si>
+    <t>Porac</t>
+  </si>
+  <si>
+    <t>Clark South</t>
+  </si>
+  <si>
+    <t>Mabalacat (Mabiga)</t>
+  </si>
+  <si>
+    <t>Clark North</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Bamban/New Clark City</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Hacienda Luisita</t>
+  </si>
+  <si>
+    <t>Tarlac</t>
+  </si>
+  <si>
+    <t>Mindanao Avenue</t>
+  </si>
+  <si>
+    <t>Tabang</t>
+  </si>
+  <si>
+    <t>Sta. Ines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,14 +281,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,13 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,452 +940,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B9BC0-D3F5-9546-A306-F01AB88FB40B}">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:V19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>254</v>
+      </c>
+      <c r="C3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>254</v>
+      </c>
+      <c r="C4">
+        <v>254</v>
+      </c>
+      <c r="D4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>254</v>
+      </c>
+      <c r="C5">
+        <v>254</v>
+      </c>
+      <c r="D5">
+        <v>254</v>
+      </c>
+      <c r="E5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>254</v>
+      </c>
+      <c r="C6">
+        <v>254</v>
+      </c>
+      <c r="D6">
+        <v>254</v>
+      </c>
+      <c r="E6">
+        <v>254</v>
+      </c>
+      <c r="F6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>288</v>
+      </c>
+      <c r="C7">
+        <v>288</v>
+      </c>
+      <c r="D7">
+        <v>288</v>
+      </c>
+      <c r="E7">
+        <v>288</v>
+      </c>
+      <c r="F7">
+        <v>288</v>
+      </c>
+      <c r="G7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>315</v>
+      </c>
+      <c r="C8">
+        <v>315</v>
+      </c>
+      <c r="D8">
+        <v>315</v>
+      </c>
+      <c r="E8">
+        <v>315</v>
+      </c>
+      <c r="F8">
+        <v>315</v>
+      </c>
+      <c r="G8">
+        <v>315</v>
+      </c>
+      <c r="H8">
         <v>28</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2">
-        <v>98</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3">
-        <v>218</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3">
-        <v>356</v>
-      </c>
-      <c r="J3">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>330</v>
+      </c>
+      <c r="C9">
+        <v>330</v>
+      </c>
+      <c r="D9">
+        <v>330</v>
+      </c>
+      <c r="E9">
+        <v>330</v>
+      </c>
+      <c r="F9">
+        <v>330</v>
+      </c>
+      <c r="G9">
+        <v>330</v>
+      </c>
+      <c r="H9">
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>408</v>
+      </c>
+      <c r="C10">
+        <v>408</v>
+      </c>
+      <c r="D10">
+        <v>408</v>
+      </c>
+      <c r="E10">
+        <v>408</v>
+      </c>
+      <c r="F10">
+        <v>408</v>
+      </c>
+      <c r="G10">
+        <v>408</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
+      </c>
+      <c r="I10">
+        <v>93</v>
+      </c>
+      <c r="J10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>471</v>
+      </c>
+      <c r="C11">
+        <v>471</v>
+      </c>
+      <c r="D11">
+        <v>471</v>
+      </c>
+      <c r="E11">
+        <v>471</v>
+      </c>
+      <c r="F11">
+        <v>471</v>
+      </c>
+      <c r="G11">
+        <v>471</v>
+      </c>
+      <c r="H11">
+        <v>183</v>
+      </c>
+      <c r="I11">
+        <v>155</v>
+      </c>
+      <c r="J11">
+        <v>140</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
         <v>493</v>
-      </c>
-      <c r="K3">
-        <v>510</v>
-      </c>
-      <c r="L3">
-        <v>626</v>
-      </c>
-      <c r="M3">
-        <v>556</v>
-      </c>
-      <c r="N3">
-        <v>577</v>
-      </c>
-      <c r="O3">
-        <v>630</v>
-      </c>
-      <c r="P3">
-        <v>650</v>
-      </c>
-      <c r="Q3">
-        <v>685</v>
-      </c>
-      <c r="R3">
-        <v>717</v>
-      </c>
-      <c r="S3">
-        <v>761</v>
-      </c>
-      <c r="T3">
-        <v>790</v>
-      </c>
-      <c r="U3">
-        <v>809</v>
-      </c>
-      <c r="V3">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>218</v>
-      </c>
-      <c r="C4">
-        <v>147</v>
-      </c>
-      <c r="D4">
-        <v>147</v>
-      </c>
-      <c r="E4">
-        <v>218</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4">
-        <v>218</v>
-      </c>
-      <c r="H4">
-        <v>218</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>356</v>
-      </c>
-      <c r="C6">
-        <v>252</v>
-      </c>
-      <c r="D6">
-        <v>252</v>
-      </c>
-      <c r="E6">
-        <v>356</v>
-      </c>
-      <c r="F6">
-        <v>104</v>
-      </c>
-      <c r="G6">
-        <v>356</v>
-      </c>
-      <c r="H6">
-        <v>356</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>493</v>
-      </c>
-      <c r="C7">
-        <v>356</v>
-      </c>
-      <c r="D7">
-        <v>356</v>
-      </c>
-      <c r="E7">
-        <v>493</v>
-      </c>
-      <c r="F7">
-        <v>208</v>
-      </c>
-      <c r="G7">
-        <v>493</v>
-      </c>
-      <c r="H7">
-        <v>493</v>
-      </c>
-      <c r="I7">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>510</v>
-      </c>
-      <c r="C8">
-        <v>373</v>
-      </c>
-      <c r="D8">
-        <v>373</v>
-      </c>
-      <c r="E8">
-        <v>510</v>
-      </c>
-      <c r="F8">
-        <v>225</v>
-      </c>
-      <c r="G8">
-        <v>510</v>
-      </c>
-      <c r="H8">
-        <v>510</v>
-      </c>
-      <c r="I8">
-        <v>121</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>626</v>
-      </c>
-      <c r="C9">
-        <v>489</v>
-      </c>
-      <c r="D9">
-        <v>489</v>
-      </c>
-      <c r="E9">
-        <v>626</v>
-      </c>
-      <c r="F9">
-        <v>341</v>
-      </c>
-      <c r="G9">
-        <v>626</v>
-      </c>
-      <c r="H9">
-        <v>626</v>
-      </c>
-      <c r="I9">
-        <v>237</v>
-      </c>
-      <c r="J9">
-        <v>133</v>
-      </c>
-      <c r="K9">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>556</v>
-      </c>
-      <c r="C10">
-        <v>419</v>
-      </c>
-      <c r="D10">
-        <v>419</v>
-      </c>
-      <c r="E10">
-        <v>556</v>
-      </c>
-      <c r="F10">
-        <v>271</v>
-      </c>
-      <c r="G10">
-        <v>556</v>
-      </c>
-      <c r="H10">
-        <v>556</v>
-      </c>
-      <c r="I10">
-        <v>167</v>
-      </c>
-      <c r="J10">
-        <v>63</v>
-      </c>
-      <c r="K10">
-        <v>46</v>
-      </c>
-      <c r="L10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>577</v>
-      </c>
-      <c r="C11">
-        <v>440</v>
-      </c>
-      <c r="D11">
-        <v>440</v>
-      </c>
-      <c r="E11">
-        <v>577</v>
-      </c>
-      <c r="F11">
-        <v>292</v>
-      </c>
-      <c r="G11">
-        <v>577</v>
-      </c>
-      <c r="H11">
-        <v>577</v>
-      </c>
-      <c r="I11">
-        <v>188</v>
-      </c>
-      <c r="J11">
-        <v>84</v>
-      </c>
-      <c r="K11">
-        <v>68</v>
-      </c>
-      <c r="L11">
-        <v>91</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>630</v>
       </c>
       <c r="C12">
         <v>493</v>
@@ -1307,501 +1269,1352 @@
         <v>493</v>
       </c>
       <c r="E12">
-        <v>630</v>
+        <v>493</v>
       </c>
       <c r="F12">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="G12">
-        <v>630</v>
+        <v>493</v>
       </c>
       <c r="H12">
-        <v>630</v>
+        <v>205</v>
       </c>
       <c r="I12">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="J12">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="K12">
-        <v>120</v>
-      </c>
-      <c r="L12">
-        <v>144</v>
-      </c>
-      <c r="M12">
-        <v>74</v>
-      </c>
-      <c r="N12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C13">
-        <v>513</v>
+        <v>605</v>
       </c>
       <c r="D13">
-        <v>513</v>
+        <v>605</v>
       </c>
       <c r="E13">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="F13">
-        <v>365</v>
+        <v>605</v>
       </c>
       <c r="G13">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="H13">
-        <v>650</v>
+        <v>317</v>
       </c>
       <c r="I13">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="J13">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="K13">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="L13">
-        <v>164</v>
-      </c>
-      <c r="M13">
-        <v>94</v>
-      </c>
-      <c r="N13">
-        <v>73</v>
-      </c>
-      <c r="O13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>685</v>
+        <v>797</v>
       </c>
       <c r="C14">
-        <v>548</v>
+        <v>797</v>
       </c>
       <c r="D14">
-        <v>548</v>
+        <v>797</v>
       </c>
       <c r="E14">
-        <v>685</v>
+        <v>797</v>
       </c>
       <c r="F14">
-        <v>400</v>
+        <v>797</v>
       </c>
       <c r="G14">
-        <v>685</v>
+        <v>797</v>
       </c>
       <c r="H14">
-        <v>685</v>
+        <v>509</v>
       </c>
       <c r="I14">
-        <v>296</v>
+        <v>481</v>
       </c>
       <c r="J14">
+        <v>466</v>
+      </c>
+      <c r="K14">
+        <v>389</v>
+      </c>
+      <c r="L14">
+        <v>304</v>
+      </c>
+      <c r="M14">
         <v>192</v>
       </c>
-      <c r="K14">
-        <v>176</v>
-      </c>
-      <c r="L14">
-        <v>199</v>
-      </c>
-      <c r="M14">
-        <v>129</v>
-      </c>
-      <c r="N14">
-        <v>108</v>
-      </c>
-      <c r="O14">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="P14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B15">
-        <v>717</v>
+        <v>943</v>
       </c>
       <c r="C15">
-        <v>580</v>
+        <v>943</v>
       </c>
       <c r="D15">
-        <v>580</v>
+        <v>943</v>
       </c>
       <c r="E15">
-        <v>717</v>
+        <v>943</v>
       </c>
       <c r="F15">
-        <v>432</v>
+        <v>943</v>
       </c>
       <c r="G15">
-        <v>717</v>
+        <v>943</v>
       </c>
       <c r="H15">
-        <v>717</v>
+        <v>655</v>
       </c>
       <c r="I15">
-        <v>328</v>
+        <v>627</v>
       </c>
       <c r="J15">
-        <v>224</v>
+        <v>613</v>
       </c>
       <c r="K15">
-        <v>207</v>
+        <v>535</v>
       </c>
       <c r="L15">
-        <v>231</v>
+        <v>450</v>
       </c>
       <c r="M15">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="N15">
-        <v>139</v>
-      </c>
-      <c r="O15">
-        <v>87</v>
-      </c>
-      <c r="P15">
-        <v>66</v>
-      </c>
-      <c r="Q15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>761</v>
-      </c>
-      <c r="C16">
-        <v>624</v>
-      </c>
-      <c r="D16">
-        <v>624</v>
-      </c>
-      <c r="E16">
-        <v>761</v>
-      </c>
-      <c r="F16">
-        <v>476</v>
-      </c>
-      <c r="G16">
-        <v>761</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1059</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1059</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1059</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1059</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1059</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1059</v>
       </c>
       <c r="H16">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="I16">
-        <v>372</v>
+        <v>744</v>
       </c>
       <c r="J16">
-        <v>268</v>
+        <v>729</v>
       </c>
       <c r="K16">
-        <v>252</v>
+        <v>651</v>
       </c>
       <c r="L16">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="M16">
-        <v>205</v>
+        <v>454</v>
       </c>
       <c r="N16">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="O16">
-        <v>132</v>
-      </c>
-      <c r="P16">
-        <v>111</v>
-      </c>
-      <c r="Q16">
-        <v>76</v>
-      </c>
-      <c r="R16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1198</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1198</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1198</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1198</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1198</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1198</v>
+      </c>
+      <c r="H17">
+        <v>910</v>
+      </c>
+      <c r="I17">
+        <v>882</v>
+      </c>
+      <c r="J17">
+        <v>868</v>
+      </c>
+      <c r="K17">
         <v>790</v>
       </c>
-      <c r="C17">
-        <v>653</v>
-      </c>
-      <c r="D17">
-        <v>653</v>
-      </c>
-      <c r="E17">
-        <v>790</v>
-      </c>
-      <c r="F17">
-        <v>505</v>
-      </c>
-      <c r="G17">
-        <v>790</v>
-      </c>
-      <c r="H17">
-        <v>790</v>
-      </c>
-      <c r="I17">
+      <c r="L17">
+        <v>705</v>
+      </c>
+      <c r="M17">
+        <v>593</v>
+      </c>
+      <c r="N17">
         <v>401</v>
       </c>
-      <c r="J17">
-        <v>297</v>
-      </c>
-      <c r="K17">
-        <v>280</v>
-      </c>
-      <c r="L17">
-        <v>304</v>
-      </c>
-      <c r="M17">
-        <v>234</v>
-      </c>
-      <c r="N17">
-        <v>212</v>
-      </c>
       <c r="O17">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="P17">
         <v>139</v>
       </c>
-      <c r="Q17">
-        <v>104</v>
-      </c>
-      <c r="R17">
-        <v>73</v>
-      </c>
-      <c r="S17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>809</v>
-      </c>
-      <c r="C18">
-        <v>672</v>
-      </c>
-      <c r="D18">
-        <v>672</v>
-      </c>
-      <c r="E18">
-        <v>809</v>
-      </c>
-      <c r="F18">
-        <v>524</v>
-      </c>
-      <c r="G18">
-        <v>809</v>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1232</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1232</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1232</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1232</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1232</v>
       </c>
       <c r="H18">
-        <v>809</v>
+        <v>944</v>
       </c>
       <c r="I18">
-        <v>420</v>
+        <v>916</v>
       </c>
       <c r="J18">
+        <v>901</v>
+      </c>
+      <c r="K18">
+        <v>824</v>
+      </c>
+      <c r="L18">
+        <v>739</v>
+      </c>
+      <c r="M18">
+        <v>626</v>
+      </c>
+      <c r="N18">
+        <v>435</v>
+      </c>
+      <c r="O18">
+        <v>289</v>
+      </c>
+      <c r="P18">
+        <v>172</v>
+      </c>
+      <c r="Q18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1319</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1319</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1319</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1319</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1319</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1319</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1031</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1003</v>
+      </c>
+      <c r="J19">
+        <v>988</v>
+      </c>
+      <c r="K19">
+        <v>911</v>
+      </c>
+      <c r="L19">
+        <v>826</v>
+      </c>
+      <c r="M19">
+        <v>713</v>
+      </c>
+      <c r="N19">
+        <v>522</v>
+      </c>
+      <c r="O19">
+        <v>376</v>
+      </c>
+      <c r="P19">
+        <v>259</v>
+      </c>
+      <c r="Q19">
+        <v>121</v>
+      </c>
+      <c r="R19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2569</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2569</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2569</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2569</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2569</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2569</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2281</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2253</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2238</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2161</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2076</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1963</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1772</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1626</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1509</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1371</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1337</v>
+      </c>
+      <c r="S20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2193</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2193</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2193</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2193</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2193</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2193</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1905</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1877</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1862</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1785</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1700</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1587</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1396</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1250</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1133</v>
+      </c>
+      <c r="Q21">
+        <v>995</v>
+      </c>
+      <c r="R21">
+        <v>961</v>
+      </c>
+      <c r="S21">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1824</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1824</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1824</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1824</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1824</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1824</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1536</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1508</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1493</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1416</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1331</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1218</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1027</v>
+      </c>
+      <c r="O22">
+        <v>881</v>
+      </c>
+      <c r="P22">
+        <v>764</v>
+      </c>
+      <c r="Q22">
+        <v>626</v>
+      </c>
+      <c r="R22">
+        <v>592</v>
+      </c>
+      <c r="S22">
+        <v>745</v>
+      </c>
+      <c r="T22">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1555</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1555</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1555</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1555</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1555</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1555</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1267</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1239</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1224</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1147</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1062</v>
+      </c>
+      <c r="M23">
+        <v>949</v>
+      </c>
+      <c r="N23">
+        <v>758</v>
+      </c>
+      <c r="O23">
+        <v>612</v>
+      </c>
+      <c r="P23">
+        <v>495</v>
+      </c>
+      <c r="Q23">
+        <v>357</v>
+      </c>
+      <c r="R23">
+        <v>323</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1015</v>
+      </c>
+      <c r="T23">
+        <v>638</v>
+      </c>
+      <c r="U23">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1352</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1352</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1352</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1352</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1352</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1352</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1064</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1036</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1021</v>
+      </c>
+      <c r="K24">
+        <v>944</v>
+      </c>
+      <c r="L24">
+        <v>859</v>
+      </c>
+      <c r="M24">
+        <v>746</v>
+      </c>
+      <c r="N24">
+        <v>555</v>
+      </c>
+      <c r="O24">
+        <v>409</v>
+      </c>
+      <c r="P24">
+        <v>292</v>
+      </c>
+      <c r="Q24">
+        <v>154</v>
+      </c>
+      <c r="R24">
+        <v>120</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1217</v>
+      </c>
+      <c r="T24">
+        <v>841</v>
+      </c>
+      <c r="U24">
+        <v>472</v>
+      </c>
+      <c r="V24">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1319</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1319</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1319</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1319</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1319</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1319</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1031</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1003</v>
+      </c>
+      <c r="J25">
+        <v>988</v>
+      </c>
+      <c r="K25">
+        <v>911</v>
+      </c>
+      <c r="L25">
+        <v>826</v>
+      </c>
+      <c r="M25">
+        <v>713</v>
+      </c>
+      <c r="N25">
+        <v>522</v>
+      </c>
+      <c r="O25">
+        <v>376</v>
+      </c>
+      <c r="P25">
+        <v>259</v>
+      </c>
+      <c r="Q25">
+        <v>121</v>
+      </c>
+      <c r="R25">
+        <v>87</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="T25">
+        <v>874</v>
+      </c>
+      <c r="U25">
+        <v>505</v>
+      </c>
+      <c r="V25">
+        <v>236</v>
+      </c>
+      <c r="W25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1400</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1400</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1112</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1084</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1069</v>
+      </c>
+      <c r="K26">
+        <v>992</v>
+      </c>
+      <c r="L26">
+        <v>907</v>
+      </c>
+      <c r="M26">
+        <v>794</v>
+      </c>
+      <c r="N26">
+        <v>603</v>
+      </c>
+      <c r="O26">
+        <v>457</v>
+      </c>
+      <c r="P26">
+        <v>340</v>
+      </c>
+      <c r="Q26">
+        <v>202</v>
+      </c>
+      <c r="R26">
+        <v>168</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1332</v>
+      </c>
+      <c r="T26">
+        <v>955</v>
+      </c>
+      <c r="U26">
+        <v>587</v>
+      </c>
+      <c r="V26">
+        <v>317</v>
+      </c>
+      <c r="W26">
+        <v>114</v>
+      </c>
+      <c r="X26">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1430</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1430</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1430</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1430</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1430</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1430</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1142</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1114</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1099</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1022</v>
+      </c>
+      <c r="L27">
+        <v>937</v>
+      </c>
+      <c r="M27">
+        <v>824</v>
+      </c>
+      <c r="N27">
+        <v>633</v>
+      </c>
+      <c r="O27">
+        <v>487</v>
+      </c>
+      <c r="P27">
+        <v>370</v>
+      </c>
+      <c r="Q27">
+        <v>232</v>
+      </c>
+      <c r="R27">
+        <v>198</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1362</v>
+      </c>
+      <c r="T27">
+        <v>985</v>
+      </c>
+      <c r="U27">
+        <v>617</v>
+      </c>
+      <c r="V27">
+        <v>347</v>
+      </c>
+      <c r="W27">
+        <v>144</v>
+      </c>
+      <c r="X27">
+        <v>111</v>
+      </c>
+      <c r="Y27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1561</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1561</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1561</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1561</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1561</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1561</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1273</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1245</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1230</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1153</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M28">
+        <v>955</v>
+      </c>
+      <c r="N28">
+        <v>764</v>
+      </c>
+      <c r="O28">
+        <v>618</v>
+      </c>
+      <c r="P28">
+        <v>501</v>
+      </c>
+      <c r="Q28">
+        <v>363</v>
+      </c>
+      <c r="R28">
+        <v>329</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1493</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1116</v>
+      </c>
+      <c r="U28">
+        <v>748</v>
+      </c>
+      <c r="V28">
+        <v>478</v>
+      </c>
+      <c r="W28">
+        <v>275</v>
+      </c>
+      <c r="X28">
+        <v>242</v>
+      </c>
+      <c r="Y28">
+        <v>161</v>
+      </c>
+      <c r="Z28">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1635</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1635</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1635</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1635</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1635</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1635</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1347</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1319</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1304</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1227</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1142</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1029</v>
+      </c>
+      <c r="N29">
+        <v>838</v>
+      </c>
+      <c r="O29">
+        <v>692</v>
+      </c>
+      <c r="P29">
+        <v>575</v>
+      </c>
+      <c r="Q29">
+        <v>437</v>
+      </c>
+      <c r="R29">
+        <v>403</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1567</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1190</v>
+      </c>
+      <c r="U29">
+        <v>821</v>
+      </c>
+      <c r="V29">
+        <v>552</v>
+      </c>
+      <c r="W29">
+        <v>349</v>
+      </c>
+      <c r="X29">
         <v>316</v>
       </c>
-      <c r="K18">
-        <v>300</v>
-      </c>
-      <c r="L18">
-        <v>323</v>
-      </c>
-      <c r="M18">
-        <v>253</v>
-      </c>
-      <c r="N18">
-        <v>232</v>
-      </c>
-      <c r="O18">
-        <v>180</v>
-      </c>
-      <c r="P18">
-        <v>159</v>
-      </c>
-      <c r="Q18">
-        <v>124</v>
-      </c>
-      <c r="R18">
-        <v>93</v>
-      </c>
-      <c r="S18">
-        <v>48</v>
-      </c>
-      <c r="T18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>872</v>
-      </c>
-      <c r="C19">
-        <v>735</v>
-      </c>
-      <c r="D19">
-        <v>735</v>
-      </c>
-      <c r="E19">
-        <v>872</v>
-      </c>
-      <c r="F19">
-        <v>587</v>
-      </c>
-      <c r="G19">
-        <v>872</v>
-      </c>
-      <c r="H19">
-        <v>872</v>
-      </c>
-      <c r="I19">
-        <v>483</v>
-      </c>
-      <c r="J19">
-        <v>379</v>
-      </c>
-      <c r="K19">
-        <v>362</v>
-      </c>
-      <c r="L19">
-        <v>386</v>
-      </c>
-      <c r="M19">
-        <v>316</v>
-      </c>
-      <c r="N19">
-        <v>295</v>
-      </c>
-      <c r="O19">
-        <v>242</v>
-      </c>
-      <c r="P19">
-        <v>222</v>
-      </c>
-      <c r="Q19">
-        <v>187</v>
-      </c>
-      <c r="R19">
-        <v>155</v>
-      </c>
-      <c r="S19">
-        <v>111</v>
-      </c>
-      <c r="T19">
-        <v>82</v>
-      </c>
-      <c r="U19">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y29">
+        <v>235</v>
+      </c>
+      <c r="Z29">
+        <v>205</v>
+      </c>
+      <c r="AA29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1912</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1912</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1912</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1912</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1912</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1912</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1624</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1596</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1581</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1504</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1419</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1306</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1115</v>
+      </c>
+      <c r="O30">
+        <v>969</v>
+      </c>
+      <c r="P30">
+        <v>852</v>
+      </c>
+      <c r="Q30">
+        <v>714</v>
+      </c>
+      <c r="R30">
+        <v>680</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1843</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1467</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1098</v>
+      </c>
+      <c r="V30">
+        <v>829</v>
+      </c>
+      <c r="W30">
+        <v>626</v>
+      </c>
+      <c r="X30">
+        <v>593</v>
+      </c>
+      <c r="Y30">
+        <v>512</v>
+      </c>
+      <c r="Z30">
+        <v>481</v>
+      </c>
+      <c r="AA30">
+        <v>350</v>
+      </c>
+      <c r="AB30">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1720</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1692</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1677</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1600</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1515</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1402</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1211</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1065</v>
+      </c>
+      <c r="P31">
+        <v>948</v>
+      </c>
+      <c r="Q31">
+        <v>810</v>
+      </c>
+      <c r="R31">
+        <v>776</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1940</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1563</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1195</v>
+      </c>
+      <c r="V31">
+        <v>925</v>
+      </c>
+      <c r="W31">
+        <v>722</v>
+      </c>
+      <c r="X31">
+        <v>689</v>
+      </c>
+      <c r="Y31">
+        <v>608</v>
+      </c>
+      <c r="Z31">
+        <v>578</v>
+      </c>
+      <c r="AA31">
+        <v>447</v>
+      </c>
+      <c r="AB31">
+        <v>373</v>
+      </c>
+      <c r="AC31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1811,9 +2624,9 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1821,18 +2634,27 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
       <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1842,9 +2664,13 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1854,9 +2680,15 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1867,71 +2699,49 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="S69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,7 +2920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2434ACF-B3FC-E74E-8884-182839C01BCF}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
